--- a/Alfawork/工作计划/20170502~20170505.xlsx
+++ b/Alfawork/工作计划/20170502~20170505.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>序号</t>
   </si>
@@ -47,16 +47,28 @@
   <si>
     <t>完成</t>
   </si>
+  <si>
+    <t>系统参数配置功能的业务功能的开发</t>
+  </si>
+  <si>
+    <t>后台基础框架的日志组件无法生成日志文件的BUG的修改</t>
+  </si>
+  <si>
+    <t>mybatis框架的缓存配置的启用</t>
+  </si>
+  <si>
+    <t>ehcache框架的搭建并测试通过</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -76,6 +88,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -84,7 +104,80 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,23 +191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -123,103 +209,29 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +252,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,162 +439,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,25 +480,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,6 +506,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -512,26 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,8 +557,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,137 +597,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,13 +746,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,13 +1111,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="49" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="49" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="16384" width="27.875" style="1" customWidth="1"/>
   </cols>
@@ -1124,22 +1145,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A2" s="6">
@@ -1164,25 +1185,115 @@
         <v>9</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A3" s="8"/>
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42849</v>
+      </c>
+      <c r="D3" s="7">
+        <v>42853</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42860</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42857</v>
+      </c>
+      <c r="D4" s="7">
+        <v>42859</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42860</v>
+      </c>
+      <c r="D5" s="7">
+        <v>42860</v>
+      </c>
+      <c r="E5" s="7">
+        <v>42860</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42858</v>
+      </c>
+      <c r="D6" s="7">
+        <v>42860</v>
+      </c>
+      <c r="E6" s="7">
+        <v>42860</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
